--- a/va_facility_data_2025-02-20/Rumford VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rumford%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rumford VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rumford%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9977a0563252413abd2abc34eb752c77"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf279c44787d249ff99b95354e57108b4"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R00eba870eb8b4bdd86237500d91213d5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R73786dd90b8f4d38936a2842cf30b9d8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re063d54a8286454cbc1e21c0dc30a8b3"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R89f2fa535d3c4b09b4d2505b151944c6"/>
   </x:sheets>
 </x:workbook>
 </file>
